--- a/artfynd/A 24016-2025 artfynd.xlsx
+++ b/artfynd/A 24016-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,747 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131106808</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>600356</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6973038</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2025_0368</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>14:39</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>14:39</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131106807</v>
+      </c>
+      <c r="B4" t="n">
+        <v>79862</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>600345</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6973042</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2025_0369</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131106804</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>600308</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6972996</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2025_0372</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>14:53</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131106805</v>
+      </c>
+      <c r="B6" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>600334</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6973001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2025_0371</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131106806</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79833</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>229821</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vedflamlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ramboldia elabens</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>600353</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6973046</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2025_0370</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131106803</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>600279</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6972994</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025_0373</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>14:59</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
